--- a/Tabelas-Algoritmos.xlsx
+++ b/Tabelas-Algoritmos.xlsx
@@ -17,30 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>X Normalizado</t>
-  </si>
-  <si>
-    <t>Y Normalizado</t>
-  </si>
-  <si>
-    <t>Op Polinomial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coef. Angular = </t>
-  </si>
-  <si>
-    <t>Op Linear</t>
-  </si>
-  <si>
-    <t>Op Exponencial</t>
   </si>
 </sst>
 </file>
@@ -76,13 +58,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -92,6 +67,11 @@
       <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -127,19 +107,15 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -172,7 +148,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Ciclos x Log(Exp(Ciclos)</a:t>
+              <a:t>Ciclos x Operações</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -189,7 +165,9 @@
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
-                <a:srgbClr val="4285F4"/>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="100000"/>
+                </a:srgbClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -198,22 +176,22 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Algoritmo 1'!$C$2:$C$101</c:f>
+              <c:f>'Algoritmo 1'!$A$2:$A$101</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Algoritmo 1'!$E$2:$E$101</c:f>
+              <c:f>'Algoritmo 1'!$B$2:$B$101</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="137454318"/>
-        <c:axId val="2129445859"/>
+        <c:axId val="1594633952"/>
+        <c:axId val="226214722"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137454318"/>
+        <c:axId val="1594633952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -265,10 +243,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129445859"/>
+        <c:crossAx val="226214722"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129445859"/>
+        <c:axId val="226214722"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -343,7 +321,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137454318"/>
+        <c:crossAx val="1594633952"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -421,22 +399,22 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Algoritmo 1'!$A$2:$A$101</c:f>
+              <c:f>'Algoritmo 2'!$A$2:$A$101</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Algoritmo 1'!$B$2:$B$101</c:f>
+              <c:f>'Algoritmo 2'!$B$2:$B$101</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="886379351"/>
-        <c:axId val="1884446680"/>
+        <c:axId val="1332171335"/>
+        <c:axId val="1796294437"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="886379351"/>
+        <c:axId val="1332171335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -488,10 +466,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1884446680"/>
+        <c:crossAx val="1796294437"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1884446680"/>
+        <c:axId val="1796294437"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -566,7 +544,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="886379351"/>
+        <c:crossAx val="1332171335"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -644,22 +622,22 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Algoritmo 2'!$A$2:$A$101</c:f>
+              <c:f>'Algoritmo 3'!$A$2:$A$101</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Algoritmo 2'!$B$2:$B$101</c:f>
+              <c:f>'Algoritmo 3'!$B$2:$B$101</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1304050948"/>
-        <c:axId val="441314267"/>
+        <c:axId val="386249714"/>
+        <c:axId val="886523689"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1304050948"/>
+        <c:axId val="386249714"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,10 +689,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441314267"/>
+        <c:crossAx val="886523689"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441314267"/>
+        <c:axId val="886523689"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -789,7 +767,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1304050948"/>
+        <c:crossAx val="386249714"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -867,22 +845,22 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Algoritmo 3'!$A$2:$A$101</c:f>
+              <c:f>'Algoritmo 4'!$A$2:$A$101</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Algoritmo 3'!$B$2:$B$101</c:f>
+              <c:f>'Algoritmo 4'!$B$2:$B$101</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1958578483"/>
-        <c:axId val="294480227"/>
+        <c:axId val="307924019"/>
+        <c:axId val="1471526638"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1958578483"/>
+        <c:axId val="307924019"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,10 +912,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294480227"/>
+        <c:crossAx val="1471526638"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="294480227"/>
+        <c:axId val="1471526638"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +990,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1958578483"/>
+        <c:crossAx val="307924019"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1090,22 +1068,22 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Algoritmo 4'!$A$2:$A$101</c:f>
+              <c:f>'Algoritmo 5'!$A$2:$A$101</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Algoritmo 4'!$B$2:$B$101</c:f>
+              <c:f>'Algoritmo 5'!$B$2:$B$101</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="318567572"/>
-        <c:axId val="1506848626"/>
+        <c:axId val="761916210"/>
+        <c:axId val="1456028444"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="318567572"/>
+        <c:axId val="761916210"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,10 +1135,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1506848626"/>
+        <c:crossAx val="1456028444"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1506848626"/>
+        <c:axId val="1456028444"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,230 +1213,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318567572"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Ciclos x Operações</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FF0000">
-                  <a:alpha val="100000"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Algoritmo 5'!$A$2:$A$101</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Algoritmo 5'!$B$2:$B$101</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1674127063"/>
-        <c:axId val="485052429"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1674127063"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="485052429"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="485052429"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1674127063"/>
+        <c:crossAx val="761916210"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1490,8 +1245,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -1511,10 +1266,15 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1530,7 +1290,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1539,7 +1299,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1569,7 +1329,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1599,7 +1359,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1612,36 +1372,6 @@
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 5" title="Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 6" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1870,15 +1600,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -1887,18 +1611,9 @@
       <c r="B2" s="2">
         <v>1.0</v>
       </c>
-      <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:D2" si="1">LOG10(A2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D2" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <f t="shared" ref="E2:E101" si="3">LOG10(EXP(D2))</f>
-        <v>0</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -1907,18 +1622,9 @@
       <c r="B3" s="2">
         <v>6.0</v>
       </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:D3" si="2">LOG10(A3)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="2"/>
-        <v>0.7781512504</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" si="3"/>
-        <v>0.3379467941</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -1927,18 +1633,9 @@
       <c r="B4" s="2">
         <v>19.0</v>
       </c>
-      <c r="C4" s="2">
-        <f t="shared" ref="C4:D4" si="4">LOG10(A4)</f>
-        <v>0.3010299957</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="4"/>
-        <v>1.278753601</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5553556326</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -1947,18 +1644,9 @@
       <c r="B5" s="2">
         <v>43.0</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:D5" si="5">LOG10(A5)</f>
-        <v>0.4771212547</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="5"/>
-        <v>1.633468456</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="3"/>
-        <v>0.7094063366</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -1967,18 +1655,9 @@
       <c r="B6" s="2">
         <v>89.0</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" ref="C6:D6" si="6">LOG10(A6)</f>
-        <v>0.6020599913</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="6"/>
-        <v>1.949390007</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="3"/>
-        <v>0.846609323</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -1987,18 +1666,9 @@
       <c r="B7" s="2">
         <v>164.0</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" ref="C7:D7" si="7">LOG10(A7)</f>
-        <v>0.6989700043</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="7"/>
-        <v>2.214843848</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="3"/>
-        <v>0.9618944615</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -2007,18 +1677,9 @@
       <c r="B8" s="2">
         <v>278.0</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" ref="C8:D8" si="8">LOG10(A8)</f>
-        <v>0.7781512504</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="8"/>
-        <v>2.444044796</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="3"/>
-        <v>1.061435168</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -2027,18 +1688,9 @@
       <c r="B9" s="2">
         <v>438.0</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" ref="C9:D9" si="9">LOG10(A9)</f>
-        <v>0.84509804</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="9"/>
-        <v>2.641474111</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="3"/>
-        <v>1.14717763</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -2047,18 +1699,9 @@
       <c r="B10" s="2">
         <v>665.0</v>
       </c>
-      <c r="C10" s="2">
-        <f t="shared" ref="C10:D10" si="10">LOG10(A10)</f>
-        <v>0.903089987</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="10"/>
-        <v>2.822821645</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="3"/>
-        <v>1.225935864</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -2067,18 +1710,9 @@
       <c r="B11" s="2">
         <v>970.0</v>
       </c>
-      <c r="C11" s="2">
-        <f t="shared" ref="C11:D11" si="11">LOG10(A11)</f>
-        <v>0.9542425094</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="11"/>
-        <v>2.986771734</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="3"/>
-        <v>1.297138483</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -2087,18 +1721,9 @@
       <c r="B12" s="2">
         <v>1369.0</v>
       </c>
-      <c r="C12" s="2">
-        <f t="shared" ref="C12:D12" si="12">LOG10(A12)</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="12"/>
-        <v>3.136403448</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="3"/>
-        <v>1.362122711</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -2107,18 +1732,9 @@
       <c r="B13" s="2">
         <v>1873.0</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" ref="C13:D13" si="13">LOG10(A13)</f>
-        <v>1.041392685</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="13"/>
-        <v>3.272537777</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="3"/>
-        <v>1.421245099</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -2127,18 +1743,9 @@
       <c r="B14" s="2">
         <v>2513.0</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" ref="C14:D14" si="14">LOG10(A14)</f>
-        <v>1.079181246</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="14"/>
-        <v>3.400192489</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="3"/>
-        <v>1.476684835</v>
-      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -2147,18 +1754,9 @@
       <c r="B15" s="2">
         <v>3304.0</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" ref="C15:D15" si="15">LOG10(A15)</f>
-        <v>1.113943352</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="15"/>
-        <v>3.519040039</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="3"/>
-        <v>1.52829967</v>
-      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -2167,18 +1765,9 @@
       <c r="B16" s="2">
         <v>4268.0</v>
       </c>
-      <c r="C16" s="2">
-        <f t="shared" ref="C16:D16" si="16">LOG10(A16)</f>
-        <v>1.146128036</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="16"/>
-        <v>3.630224411</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="3"/>
-        <v>1.57658643</v>
-      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="2">
@@ -2187,18 +1776,9 @@
       <c r="B17" s="2">
         <v>5420.0</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" ref="C17:D17" si="17">LOG10(A17)</f>
-        <v>1.176091259</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="17"/>
-        <v>3.733999287</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="3"/>
-        <v>1.621655286</v>
-      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -2207,18 +1787,9 @@
       <c r="B18" s="2">
         <v>6801.0</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" ref="C18:D18" si="18">LOG10(A18)</f>
-        <v>1.204119983</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="18"/>
-        <v>3.832572775</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="3"/>
-        <v>1.664465208</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="2">
@@ -2227,18 +1798,9 @@
       <c r="B19" s="2">
         <v>8430.0</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" ref="C19:D19" si="19">LOG10(A19)</f>
-        <v>1.230448921</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="19"/>
-        <v>3.925827575</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="3"/>
-        <v>1.704965253</v>
-      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2">
@@ -2247,18 +1809,9 @@
       <c r="B20" s="2">
         <v>10335.0</v>
       </c>
-      <c r="C20" s="2">
-        <f t="shared" ref="C20:D20" si="20">LOG10(A20)</f>
-        <v>1.255272505</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="20"/>
-        <v>4.014310481</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="3"/>
-        <v>1.743392891</v>
-      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="2">
@@ -2267,18 +1820,9 @@
       <c r="B21" s="2">
         <v>12535.0</v>
       </c>
-      <c r="C21" s="2">
-        <f t="shared" ref="C21:D21" si="21">LOG10(A21)</f>
-        <v>1.278753601</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="21"/>
-        <v>4.098124338</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="3"/>
-        <v>1.779792786</v>
-      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="2">
@@ -2287,18 +1831,9 @@
       <c r="B22" s="2">
         <v>15081.0</v>
       </c>
-      <c r="C22" s="2">
-        <f t="shared" ref="C22:D22" si="22">LOG10(A22)</f>
-        <v>1.301029996</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="22"/>
-        <v>4.17843014</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="3"/>
-        <v>1.814669153</v>
-      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="2">
@@ -2307,18 +1842,9 @@
       <c r="B23" s="2">
         <v>17996.0</v>
       </c>
-      <c r="C23" s="2">
-        <f t="shared" ref="C23:D23" si="23">LOG10(A23)</f>
-        <v>1.322219295</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="23"/>
-        <v>4.255175984</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="3"/>
-        <v>1.84799945</v>
-      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="2">
@@ -2327,18 +1853,9 @@
       <c r="B24" s="2">
         <v>21314.0</v>
       </c>
-      <c r="C24" s="2">
-        <f t="shared" ref="C24:D24" si="24">LOG10(A24)</f>
-        <v>1.342422681</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="24"/>
-        <v>4.328664961</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="3"/>
-        <v>1.879915307</v>
-      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="2">
@@ -2347,18 +1864,9 @@
       <c r="B25" s="2">
         <v>25058.0</v>
       </c>
-      <c r="C25" s="2">
-        <f t="shared" ref="C25:D25" si="25">LOG10(A25)</f>
-        <v>1.361727836</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="25"/>
-        <v>4.398946405</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="3"/>
-        <v>1.91043815</v>
-      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="2">
@@ -2367,18 +1875,9 @@
       <c r="B26" s="2">
         <v>29289.0</v>
       </c>
-      <c r="C26" s="2">
-        <f t="shared" ref="C26:D26" si="26">LOG10(A26)</f>
-        <v>1.380211242</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="26"/>
-        <v>4.466704544</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" si="3"/>
-        <v>1.939865136</v>
-      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="2">
@@ -2387,18 +1886,9 @@
       <c r="B27" s="2">
         <v>34034.0</v>
       </c>
-      <c r="C27" s="2">
-        <f t="shared" ref="C27:D27" si="27">LOG10(A27)</f>
-        <v>1.397940009</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="27"/>
-        <v>4.531912995</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="3"/>
-        <v>1.968184806</v>
-      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="2">
@@ -2407,18 +1897,9 @@
       <c r="B28" s="2">
         <v>39333.0</v>
       </c>
-      <c r="C28" s="2">
-        <f t="shared" ref="C28:D28" si="28">LOG10(A28)</f>
-        <v>1.414973348</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="28"/>
-        <v>4.594757072</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="3"/>
-        <v>1.995477642</v>
-      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="2">
@@ -2427,18 +1908,9 @@
       <c r="B29" s="2">
         <v>45213.0</v>
       </c>
-      <c r="C29" s="2">
-        <f t="shared" ref="C29:D29" si="29">LOG10(A29)</f>
-        <v>1.431363764</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="29"/>
-        <v>4.655263325</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" si="3"/>
-        <v>2.021755174</v>
-      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="2">
@@ -2447,18 +1919,9 @@
       <c r="B30" s="2">
         <v>51745.0</v>
       </c>
-      <c r="C30" s="2">
-        <f t="shared" ref="C30:D30" si="30">LOG10(A30)</f>
-        <v>1.447158031</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="30"/>
-        <v>4.713868391</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" si="3"/>
-        <v>2.047207031</v>
-      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="2">
@@ -2467,18 +1930,9 @@
       <c r="B31" s="2">
         <v>58960.0</v>
       </c>
-      <c r="C31" s="2">
-        <f t="shared" ref="C31:D31" si="31">LOG10(A31)</f>
-        <v>1.462397998</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="31"/>
-        <v>4.770557475</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" si="3"/>
-        <v>2.071826787</v>
-      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="2">
@@ -2487,18 +1941,9 @@
       <c r="B32" s="2">
         <v>66904.0</v>
       </c>
-      <c r="C32" s="2">
-        <f t="shared" ref="C32:D32" si="32">LOG10(A32)</f>
-        <v>1.477121255</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="32"/>
-        <v>4.825452084</v>
-      </c>
-      <c r="E32" s="3">
-        <f t="shared" si="3"/>
-        <v>2.095667213</v>
-      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="2">
@@ -2507,18 +1952,9 @@
       <c r="B33" s="2">
         <v>75608.0</v>
       </c>
-      <c r="C33" s="2">
-        <f t="shared" ref="C33:D33" si="33">LOG10(A33)</f>
-        <v>1.491361694</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="33"/>
-        <v>4.87856775</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" si="3"/>
-        <v>2.118735053</v>
-      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="2">
@@ -2527,18 +1963,9 @@
       <c r="B34" s="2">
         <v>85153.0</v>
       </c>
-      <c r="C34" s="2">
-        <f t="shared" ref="C34:D34" si="34">LOG10(A34)</f>
-        <v>1.505149978</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="34"/>
-        <v>4.930199953</v>
-      </c>
-      <c r="E34" s="3">
-        <f t="shared" si="3"/>
-        <v>2.141158634</v>
-      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="2">
@@ -2547,18 +1974,9 @@
       <c r="B35" s="2">
         <v>95574.0</v>
       </c>
-      <c r="C35" s="2">
-        <f t="shared" ref="C35:D35" si="35">LOG10(A35)</f>
-        <v>1.51851394</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="35"/>
-        <v>4.980339763</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" si="3"/>
-        <v>2.162934077</v>
-      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="2">
@@ -2567,18 +1985,9 @@
       <c r="B36" s="2">
         <v>106923.0</v>
       </c>
-      <c r="C36" s="2">
-        <f t="shared" ref="C36:D36" si="36">LOG10(A36)</f>
-        <v>1.531478917</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="36"/>
-        <v>5.029071136</v>
-      </c>
-      <c r="E36" s="3">
-        <f t="shared" si="3"/>
-        <v>2.184097843</v>
-      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="2">
@@ -2587,18 +1996,9 @@
       <c r="B37" s="2">
         <v>119235.0</v>
       </c>
-      <c r="C37" s="2">
-        <f t="shared" ref="C37:D37" si="37">LOG10(A37)</f>
-        <v>1.544068044</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="37"/>
-        <v>5.076403756</v>
-      </c>
-      <c r="E37" s="3">
-        <f t="shared" si="3"/>
-        <v>2.204654139</v>
-      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="2">
@@ -2607,24 +2007,12 @@
       <c r="B38" s="2">
         <v>132601.0</v>
       </c>
-      <c r="C38" s="2">
-        <f t="shared" ref="C38:D38" si="38">LOG10(A38)</f>
-        <v>1.556302501</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="38"/>
-        <v>5.122546799</v>
-      </c>
-      <c r="E38" s="3">
-        <f t="shared" si="3"/>
-        <v>2.224693808</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="5">
-        <f>(LOG10(E40)-LOG10(E4))/(C40-C4)</f>
-        <v>0.4771519917</v>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+      <c r="G38" s="4">
+        <f>(LOG10(B22)-LOG10(B4))/(LOG10(A22)-LOG10(A4))</f>
+        <v>2.899676539</v>
       </c>
     </row>
     <row r="39">
@@ -2634,18 +2022,9 @@
       <c r="B39" s="2">
         <v>147060.0</v>
       </c>
-      <c r="C39" s="2">
-        <f t="shared" ref="C39:D39" si="39">LOG10(A39)</f>
-        <v>1.568201724</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="39"/>
-        <v>5.167494562</v>
-      </c>
-      <c r="E39" s="3">
-        <f t="shared" si="3"/>
-        <v>2.244214373</v>
-      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="2">
@@ -2654,19 +2033,10 @@
       <c r="B40" s="2">
         <v>162670.0</v>
       </c>
-      <c r="C40" s="2">
-        <f t="shared" ref="C40:D40" si="40">LOG10(A40)</f>
-        <v>1.579783597</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="40"/>
-        <v>5.211307467</v>
-      </c>
-      <c r="E40" s="3">
-        <f t="shared" si="3"/>
-        <v>2.263242076</v>
-      </c>
-      <c r="F40" s="6"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41">
       <c r="A41" s="2">
@@ -2675,18 +2045,9 @@
       <c r="B41" s="2">
         <v>179470.0</v>
       </c>
-      <c r="C41" s="2">
-        <f t="shared" ref="C41:D41" si="41">LOG10(A41)</f>
-        <v>1.591064607</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="41"/>
-        <v>5.253991863</v>
-      </c>
-      <c r="E41" s="3">
-        <f t="shared" si="3"/>
-        <v>2.281779674</v>
-      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="2">
@@ -2695,18 +2056,9 @@
       <c r="B42" s="2">
         <v>197561.0</v>
       </c>
-      <c r="C42" s="2">
-        <f t="shared" ref="C42:D42" si="42">LOG10(A42)</f>
-        <v>1.602059991</v>
-      </c>
-      <c r="D42" s="2">
-        <f t="shared" si="42"/>
-        <v>5.295701216</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" si="3"/>
-        <v>2.299893816</v>
-      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="2">
@@ -2715,18 +2067,9 @@
       <c r="B43" s="2">
         <v>216986.0</v>
       </c>
-      <c r="C43" s="2">
-        <f t="shared" ref="C43:D43" si="43">LOG10(A43)</f>
-        <v>1.612783857</v>
-      </c>
-      <c r="D43" s="2">
-        <f t="shared" si="43"/>
-        <v>5.336431714</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="3"/>
-        <v>2.317582846</v>
-      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="2">
@@ -2735,18 +2078,9 @@
       <c r="B44" s="2">
         <v>237809.0</v>
       </c>
-      <c r="C44" s="2">
-        <f t="shared" ref="C44:D44" si="44">LOG10(A44)</f>
-        <v>1.62324929</v>
-      </c>
-      <c r="D44" s="2">
-        <f t="shared" si="44"/>
-        <v>5.376228287</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="3"/>
-        <v>2.334866278</v>
-      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="2">
@@ -2755,18 +2089,9 @@
       <c r="B45" s="2">
         <v>260073.0</v>
       </c>
-      <c r="C45" s="2">
-        <f t="shared" ref="C45:D45" si="45">LOG10(A45)</f>
-        <v>1.633468456</v>
-      </c>
-      <c r="D45" s="2">
-        <f t="shared" si="45"/>
-        <v>5.415095267</v>
-      </c>
-      <c r="E45" s="3">
-        <f t="shared" si="3"/>
-        <v>2.351745994</v>
-      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46">
       <c r="A46" s="2">
@@ -2775,18 +2100,9 @@
       <c r="B46" s="2">
         <v>283889.0</v>
       </c>
-      <c r="C46" s="2">
-        <f t="shared" ref="C46:D46" si="46">LOG10(A46)</f>
-        <v>1.643452676</v>
-      </c>
-      <c r="D46" s="2">
-        <f t="shared" si="46"/>
-        <v>5.453148565</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" si="3"/>
-        <v>2.368272331</v>
-      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="2">
@@ -2795,18 +2111,9 @@
       <c r="B47" s="2">
         <v>309304.0</v>
       </c>
-      <c r="C47" s="2">
-        <f t="shared" ref="C47:D47" si="47">LOG10(A47)</f>
-        <v>1.653212514</v>
-      </c>
-      <c r="D47" s="2">
-        <f t="shared" si="47"/>
-        <v>5.490385536</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" si="3"/>
-        <v>2.384444142</v>
-      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="2">
@@ -2815,18 +2122,9 @@
       <c r="B48" s="2">
         <v>336388.0</v>
       </c>
-      <c r="C48" s="2">
-        <f t="shared" ref="C48:D48" si="48">LOG10(A48)</f>
-        <v>1.662757832</v>
-      </c>
-      <c r="D48" s="2">
-        <f t="shared" si="48"/>
-        <v>5.526840495</v>
-      </c>
-      <c r="E48" s="3">
-        <f t="shared" si="3"/>
-        <v>2.400276329</v>
-      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49">
       <c r="A49" s="2">
@@ -2835,18 +2133,9 @@
       <c r="B49" s="2">
         <v>365188.0</v>
       </c>
-      <c r="C49" s="2">
-        <f t="shared" ref="C49:D49" si="49">LOG10(A49)</f>
-        <v>1.672097858</v>
-      </c>
-      <c r="D49" s="2">
-        <f t="shared" si="49"/>
-        <v>5.562516498</v>
-      </c>
-      <c r="E49" s="3">
-        <f t="shared" si="3"/>
-        <v>2.415770221</v>
-      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="2">
@@ -2855,18 +2144,9 @@
       <c r="B50" s="2">
         <v>395825.0</v>
       </c>
-      <c r="C50" s="2">
-        <f t="shared" ref="C50:D50" si="50">LOG10(A50)</f>
-        <v>1.681241237</v>
-      </c>
-      <c r="D50" s="2">
-        <f t="shared" si="50"/>
-        <v>5.59750322</v>
-      </c>
-      <c r="E50" s="3">
-        <f t="shared" si="3"/>
-        <v>2.430964761</v>
-      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51">
       <c r="A51" s="2">
@@ -2875,18 +2155,9 @@
       <c r="B51" s="2">
         <v>428350.0</v>
       </c>
-      <c r="C51" s="2">
-        <f t="shared" ref="C51:D51" si="51">LOG10(A51)</f>
-        <v>1.69019608</v>
-      </c>
-      <c r="D51" s="2">
-        <f t="shared" si="51"/>
-        <v>5.631798771</v>
-      </c>
-      <c r="E51" s="3">
-        <f t="shared" si="3"/>
-        <v>2.44585913</v>
-      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="2">
@@ -2895,18 +2166,9 @@
       <c r="B52" s="2">
         <v>462839.0</v>
       </c>
-      <c r="C52" s="2">
-        <f t="shared" ref="C52:D52" si="52">LOG10(A52)</f>
-        <v>1.698970004</v>
-      </c>
-      <c r="D52" s="2">
-        <f t="shared" si="52"/>
-        <v>5.665429947</v>
-      </c>
-      <c r="E52" s="3">
-        <f t="shared" si="3"/>
-        <v>2.460464963</v>
-      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53">
       <c r="A53" s="2">
@@ -2915,18 +2177,9 @@
       <c r="B53" s="2">
         <v>499343.0</v>
       </c>
-      <c r="C53" s="2">
-        <f t="shared" ref="C53:D53" si="53">LOG10(A53)</f>
-        <v>1.707570176</v>
-      </c>
-      <c r="D53" s="2">
-        <f t="shared" si="53"/>
-        <v>5.698398966</v>
-      </c>
-      <c r="E53" s="3">
-        <f t="shared" si="3"/>
-        <v>2.474783227</v>
-      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="2">
@@ -2935,18 +2188,9 @@
       <c r="B54" s="2">
         <v>537993.0</v>
       </c>
-      <c r="C54" s="2">
-        <f t="shared" ref="C54:D54" si="54">LOG10(A54)</f>
-        <v>1.716003344</v>
-      </c>
-      <c r="D54" s="2">
-        <f t="shared" si="54"/>
-        <v>5.730776625</v>
-      </c>
-      <c r="E54" s="3">
-        <f t="shared" si="3"/>
-        <v>2.488844665</v>
-      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="2">
@@ -2955,18 +2199,9 @@
       <c r="B55" s="2">
         <v>578844.0</v>
       </c>
-      <c r="C55" s="2">
-        <f t="shared" ref="C55:D55" si="55">LOG10(A55)</f>
-        <v>1.72427587</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" si="55"/>
-        <v>5.762561536</v>
-      </c>
-      <c r="E55" s="3">
-        <f t="shared" si="3"/>
-        <v>2.502648677</v>
-      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="2">
@@ -2975,18 +2210,9 @@
       <c r="B56" s="2">
         <v>621978.0</v>
       </c>
-      <c r="C56" s="2">
-        <f t="shared" ref="C56:D56" si="56">LOG10(A56)</f>
-        <v>1.73239376</v>
-      </c>
-      <c r="D56" s="2">
-        <f t="shared" si="56"/>
-        <v>5.793775024</v>
-      </c>
-      <c r="E56" s="3">
-        <f t="shared" si="3"/>
-        <v>2.516204522</v>
-      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="2">
@@ -2995,18 +2221,9 @@
       <c r="B57" s="2">
         <v>667450.0</v>
       </c>
-      <c r="C57" s="2">
-        <f t="shared" ref="C57:D57" si="57">LOG10(A57)</f>
-        <v>1.740362689</v>
-      </c>
-      <c r="D57" s="2">
-        <f t="shared" si="57"/>
-        <v>5.824418737</v>
-      </c>
-      <c r="E57" s="3">
-        <f t="shared" si="3"/>
-        <v>2.529512918</v>
-      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="2">
@@ -3015,18 +2232,9 @@
       <c r="B58" s="2">
         <v>715401.0</v>
       </c>
-      <c r="C58" s="2">
-        <f t="shared" ref="C58:D58" si="58">LOG10(A58)</f>
-        <v>1.748188027</v>
-      </c>
-      <c r="D58" s="2">
-        <f t="shared" si="58"/>
-        <v>5.854549543</v>
-      </c>
-      <c r="E58" s="3">
-        <f t="shared" si="3"/>
-        <v>2.542598561</v>
-      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="2">
@@ -3035,18 +2243,9 @@
       <c r="B59" s="2">
         <v>765890.0</v>
       </c>
-      <c r="C59" s="2">
-        <f t="shared" ref="C59:D59" si="59">LOG10(A59)</f>
-        <v>1.755874856</v>
-      </c>
-      <c r="D59" s="2">
-        <f t="shared" si="59"/>
-        <v>5.884166399</v>
-      </c>
-      <c r="E59" s="3">
-        <f t="shared" si="3"/>
-        <v>2.555460998</v>
-      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="2">
@@ -3055,18 +2254,9 @@
       <c r="B60" s="2">
         <v>819005.0</v>
       </c>
-      <c r="C60" s="2">
-        <f t="shared" ref="C60:D60" si="60">LOG10(A60)</f>
-        <v>1.763427994</v>
-      </c>
-      <c r="D60" s="2">
-        <f t="shared" si="60"/>
-        <v>5.913286553</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" si="3"/>
-        <v>2.56810772</v>
-      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="2">
@@ -3075,18 +2265,9 @@
       <c r="B61" s="2">
         <v>874805.0</v>
       </c>
-      <c r="C61" s="2">
-        <f t="shared" ref="C61:D61" si="61">LOG10(A61)</f>
-        <v>1.770852012</v>
-      </c>
-      <c r="D61" s="2">
-        <f t="shared" si="61"/>
-        <v>5.941911257</v>
-      </c>
-      <c r="E61" s="3">
-        <f t="shared" si="3"/>
-        <v>2.580539271</v>
-      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="2">
@@ -3095,18 +2276,9 @@
       <c r="B62" s="2">
         <v>933441.0</v>
       </c>
-      <c r="C62" s="2">
-        <f t="shared" ref="C62:D62" si="62">LOG10(A62)</f>
-        <v>1.77815125</v>
-      </c>
-      <c r="D62" s="2">
-        <f t="shared" si="62"/>
-        <v>5.970086873</v>
-      </c>
-      <c r="E62" s="3">
-        <f t="shared" si="3"/>
-        <v>2.592775785</v>
-      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="2">
@@ -3115,18 +2287,9 @@
       <c r="B63" s="2">
         <v>994976.0</v>
       </c>
-      <c r="C63" s="2">
-        <f t="shared" ref="C63:D63" si="63">LOG10(A63)</f>
-        <v>1.785329835</v>
-      </c>
-      <c r="D63" s="2">
-        <f t="shared" si="63"/>
-        <v>5.997812605</v>
-      </c>
-      <c r="E63" s="3">
-        <f t="shared" si="3"/>
-        <v>2.604816918</v>
-      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="2">
@@ -3135,18 +2298,9 @@
       <c r="B64" s="2">
         <v>1059504.0</v>
       </c>
-      <c r="C64" s="2">
-        <f t="shared" ref="C64:D64" si="64">LOG10(A64)</f>
-        <v>1.792391689</v>
-      </c>
-      <c r="D64" s="2">
-        <f t="shared" si="64"/>
-        <v>6.025102601</v>
-      </c>
-      <c r="E64" s="3">
-        <f t="shared" si="3"/>
-        <v>2.616668812</v>
-      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="3"/>
     </row>
     <row r="65">
       <c r="A65" s="2">
@@ -3155,18 +2309,9 @@
       <c r="B65" s="2">
         <v>1127088.0</v>
       </c>
-      <c r="C65" s="2">
-        <f t="shared" ref="C65:D65" si="65">LOG10(A65)</f>
-        <v>1.799340549</v>
-      </c>
-      <c r="D65" s="2">
-        <f t="shared" si="65"/>
-        <v>6.051957826</v>
-      </c>
-      <c r="E65" s="3">
-        <f t="shared" si="3"/>
-        <v>2.628331889</v>
-      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="2">
@@ -3175,18 +2320,9 @@
       <c r="B66" s="2">
         <v>1197889.0</v>
       </c>
-      <c r="C66" s="2">
-        <f t="shared" ref="C66:D66" si="66">LOG10(A66)</f>
-        <v>1.806179974</v>
-      </c>
-      <c r="D66" s="2">
-        <f t="shared" si="66"/>
-        <v>6.078416577</v>
-      </c>
-      <c r="E66" s="3">
-        <f t="shared" si="3"/>
-        <v>2.639822778</v>
-      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="2">
@@ -3195,18 +2331,9 @@
       <c r="B67" s="2">
         <v>1271974.0</v>
       </c>
-      <c r="C67" s="2">
-        <f t="shared" ref="C67:D67" si="67">LOG10(A67)</f>
-        <v>1.812913357</v>
-      </c>
-      <c r="D67" s="2">
-        <f t="shared" si="67"/>
-        <v>6.104478234</v>
-      </c>
-      <c r="E67" s="3">
-        <f t="shared" si="3"/>
-        <v>2.651141212</v>
-      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="2">
@@ -3215,18 +2342,9 @@
       <c r="B68" s="2">
         <v>1349443.0</v>
       </c>
-      <c r="C68" s="2">
-        <f t="shared" ref="C68:D68" si="68">LOG10(A68)</f>
-        <v>1.819543936</v>
-      </c>
-      <c r="D68" s="2">
-        <f t="shared" si="68"/>
-        <v>6.130154545</v>
-      </c>
-      <c r="E68" s="3">
-        <f t="shared" si="3"/>
-        <v>2.662292292</v>
-      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="2">
@@ -3235,18 +2353,9 @@
       <c r="B69" s="2">
         <v>1430363.0</v>
       </c>
-      <c r="C69" s="2">
-        <f t="shared" ref="C69:D69" si="69">LOG10(A69)</f>
-        <v>1.826074803</v>
-      </c>
-      <c r="D69" s="2">
-        <f t="shared" si="69"/>
-        <v>6.155446267</v>
-      </c>
-      <c r="E69" s="3">
-        <f t="shared" si="3"/>
-        <v>2.673276348</v>
-      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="2">
@@ -3255,18 +2364,9 @@
       <c r="B70" s="2">
         <v>1514905.0</v>
       </c>
-      <c r="C70" s="2">
-        <f t="shared" ref="C70:D70" si="70">LOG10(A70)</f>
-        <v>1.832508913</v>
-      </c>
-      <c r="D70" s="2">
-        <f t="shared" si="70"/>
-        <v>6.180385399</v>
-      </c>
-      <c r="E70" s="3">
-        <f t="shared" si="3"/>
-        <v>2.684107275</v>
-      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="2">
@@ -3275,18 +2375,9 @@
       <c r="B71" s="2">
         <v>1603140.0</v>
       </c>
-      <c r="C71" s="2">
-        <f t="shared" ref="C71:D71" si="71">LOG10(A71)</f>
-        <v>1.838849091</v>
-      </c>
-      <c r="D71" s="2">
-        <f t="shared" si="71"/>
-        <v>6.20497145</v>
-      </c>
-      <c r="E71" s="3">
-        <f t="shared" si="3"/>
-        <v>2.694784861</v>
-      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="2">
@@ -3295,18 +2386,9 @@
       <c r="B72" s="2">
         <v>1695174.0</v>
       </c>
-      <c r="C72" s="2">
-        <f t="shared" ref="C72:D72" si="72">LOG10(A72)</f>
-        <v>1.84509804</v>
-      </c>
-      <c r="D72" s="2">
-        <f t="shared" si="72"/>
-        <v>6.229214283</v>
-      </c>
-      <c r="E72" s="3">
-        <f t="shared" si="3"/>
-        <v>2.70531339</v>
-      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="2">
@@ -3315,18 +2397,9 @@
       <c r="B73" s="2">
         <v>1791078.0</v>
       </c>
-      <c r="C73" s="2">
-        <f t="shared" ref="C73:D73" si="73">LOG10(A73)</f>
-        <v>1.851258349</v>
-      </c>
-      <c r="D73" s="2">
-        <f t="shared" si="73"/>
-        <v>6.253114499</v>
-      </c>
-      <c r="E73" s="3">
-        <f t="shared" si="3"/>
-        <v>2.715693122</v>
-      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="2">
@@ -3335,18 +2408,9 @@
       <c r="B74" s="2">
         <v>1891033.0</v>
       </c>
-      <c r="C74" s="2">
-        <f t="shared" ref="C74:D74" si="74">LOG10(A74)</f>
-        <v>1.857332496</v>
-      </c>
-      <c r="D74" s="2">
-        <f t="shared" si="74"/>
-        <v>6.276699108</v>
-      </c>
-      <c r="E74" s="3">
-        <f t="shared" si="3"/>
-        <v>2.725935787</v>
-      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="2">
@@ -3355,18 +2419,9 @@
       <c r="B75" s="2">
         <v>1995114.0</v>
       </c>
-      <c r="C75" s="2">
-        <f t="shared" ref="C75:D75" si="75">LOG10(A75)</f>
-        <v>1.86332286</v>
-      </c>
-      <c r="D75" s="2">
-        <f t="shared" si="75"/>
-        <v>6.299967716</v>
-      </c>
-      <c r="E75" s="3">
-        <f t="shared" si="3"/>
-        <v>2.736041215</v>
-      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="2">
@@ -3375,18 +2430,9 @@
       <c r="B76" s="2">
         <v>2103433.0</v>
       </c>
-      <c r="C76" s="2">
-        <f t="shared" ref="C76:D76" si="76">LOG10(A76)</f>
-        <v>1.86923172</v>
-      </c>
-      <c r="D76" s="2">
-        <f t="shared" si="76"/>
-        <v>6.322928683</v>
-      </c>
-      <c r="E76" s="3">
-        <f t="shared" si="3"/>
-        <v>2.746013037</v>
-      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="2">
@@ -3395,18 +2441,9 @@
       <c r="B77" s="2">
         <v>2216065.0</v>
       </c>
-      <c r="C77" s="2">
-        <f t="shared" ref="C77:D77" si="77">LOG10(A77)</f>
-        <v>1.875061263</v>
-      </c>
-      <c r="D77" s="2">
-        <f t="shared" si="77"/>
-        <v>6.345582495</v>
-      </c>
-      <c r="E77" s="3">
-        <f t="shared" si="3"/>
-        <v>2.755851462</v>
-      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="2">
@@ -3415,18 +2452,9 @@
       <c r="B78" s="2">
         <v>2333201.0</v>
       </c>
-      <c r="C78" s="2">
-        <f t="shared" ref="C78:D78" si="78">LOG10(A78)</f>
-        <v>1.880813592</v>
-      </c>
-      <c r="D78" s="2">
-        <f t="shared" si="78"/>
-        <v>6.367952154</v>
-      </c>
-      <c r="E78" s="3">
-        <f t="shared" si="3"/>
-        <v>2.765566481</v>
-      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="2">
@@ -3435,18 +2463,9 @@
       <c r="B79" s="2">
         <v>2454920.0</v>
       </c>
-      <c r="C79" s="2">
-        <f t="shared" ref="C79:D79" si="79">LOG10(A79)</f>
-        <v>1.886490725</v>
-      </c>
-      <c r="D79" s="2">
-        <f t="shared" si="79"/>
-        <v>6.390037344</v>
-      </c>
-      <c r="E79" s="3">
-        <f t="shared" si="3"/>
-        <v>2.775157958</v>
-      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="3"/>
     </row>
     <row r="80">
       <c r="A80" s="2">
@@ -3455,18 +2474,9 @@
       <c r="B80" s="2">
         <v>2581340.0</v>
       </c>
-      <c r="C80" s="2">
-        <f t="shared" ref="C80:D80" si="80">LOG10(A80)</f>
-        <v>1.892094603</v>
-      </c>
-      <c r="D80" s="2">
-        <f t="shared" si="80"/>
-        <v>6.411845211</v>
-      </c>
-      <c r="E80" s="3">
-        <f t="shared" si="3"/>
-        <v>2.784628994</v>
-      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="2">
@@ -3475,18 +2485,9 @@
       <c r="B81" s="2">
         <v>2712540.0</v>
       </c>
-      <c r="C81" s="2">
-        <f t="shared" ref="C81:D81" si="81">LOG10(A81)</f>
-        <v>1.897627091</v>
-      </c>
-      <c r="D81" s="2">
-        <f t="shared" si="81"/>
-        <v>6.433376151</v>
-      </c>
-      <c r="E81" s="3">
-        <f t="shared" si="3"/>
-        <v>2.793979762</v>
-      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="3"/>
     </row>
     <row r="82">
       <c r="A82" s="2">
@@ -3495,18 +2496,9 @@
       <c r="B82" s="2">
         <v>2848721.0</v>
       </c>
-      <c r="C82" s="2">
-        <f t="shared" ref="C82:D82" si="82">LOG10(A82)</f>
-        <v>1.903089987</v>
-      </c>
-      <c r="D82" s="2">
-        <f t="shared" si="82"/>
-        <v>6.454649917</v>
-      </c>
-      <c r="E82" s="3">
-        <f t="shared" si="3"/>
-        <v>2.803218842</v>
-      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="2">
@@ -3515,18 +2507,9 @@
       <c r="B83" s="2">
         <v>2989966.0</v>
       </c>
-      <c r="C83" s="2">
-        <f t="shared" ref="C83:D83" si="83">LOG10(A83)</f>
-        <v>1.908485019</v>
-      </c>
-      <c r="D83" s="2">
-        <f t="shared" si="83"/>
-        <v>6.47566625</v>
-      </c>
-      <c r="E83" s="3">
-        <f t="shared" si="3"/>
-        <v>2.812346119</v>
-      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="2">
@@ -3535,18 +2518,9 @@
       <c r="B84" s="2">
         <v>3136399.0</v>
       </c>
-      <c r="C84" s="2">
-        <f t="shared" ref="C84:D84" si="84">LOG10(A84)</f>
-        <v>1.913813852</v>
-      </c>
-      <c r="D84" s="2">
-        <f t="shared" si="84"/>
-        <v>6.496431307</v>
-      </c>
-      <c r="E84" s="3">
-        <f t="shared" si="3"/>
-        <v>2.821364269</v>
-      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="2">
@@ -3555,18 +2529,9 @@
       <c r="B85" s="2">
         <v>3288103.0</v>
       </c>
-      <c r="C85" s="2">
-        <f t="shared" ref="C85:D85" si="85">LOG10(A85)</f>
-        <v>1.919078092</v>
-      </c>
-      <c r="D85" s="2">
-        <f t="shared" si="85"/>
-        <v>6.516945413</v>
-      </c>
-      <c r="E85" s="3">
-        <f t="shared" si="3"/>
-        <v>2.830273432</v>
-      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="2">
@@ -3575,18 +2540,9 @@
       <c r="B86" s="2">
         <v>3445289.0</v>
       </c>
-      <c r="C86" s="2">
-        <f t="shared" ref="C86:D86" si="86">LOG10(A86)</f>
-        <v>1.924279286</v>
-      </c>
-      <c r="D86" s="2">
-        <f t="shared" si="86"/>
-        <v>6.537225658</v>
-      </c>
-      <c r="E86" s="3">
-        <f t="shared" si="3"/>
-        <v>2.83908103</v>
-      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="3"/>
     </row>
     <row r="87">
       <c r="A87" s="2">
@@ -3595,18 +2551,9 @@
       <c r="B87" s="2">
         <v>3608044.0</v>
       </c>
-      <c r="C87" s="2">
-        <f t="shared" ref="C87:D87" si="87">LOG10(A87)</f>
-        <v>1.929418926</v>
-      </c>
-      <c r="D87" s="2">
-        <f t="shared" si="87"/>
-        <v>6.557271825</v>
-      </c>
-      <c r="E87" s="3">
-        <f t="shared" si="3"/>
-        <v>2.84778697</v>
-      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="3"/>
     </row>
     <row r="88">
       <c r="A88" s="2">
@@ -3615,18 +2562,9 @@
       <c r="B88" s="2">
         <v>3776498.0</v>
       </c>
-      <c r="C88" s="2">
-        <f t="shared" ref="C88:D88" si="88">LOG10(A88)</f>
-        <v>1.934498451</v>
-      </c>
-      <c r="D88" s="2">
-        <f t="shared" si="88"/>
-        <v>6.577089259</v>
-      </c>
-      <c r="E88" s="3">
-        <f t="shared" si="3"/>
-        <v>2.856393572</v>
-      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="3"/>
     </row>
     <row r="89">
       <c r="A89" s="2">
@@ -3635,18 +2573,9 @@
       <c r="B89" s="2">
         <v>3950738.0</v>
       </c>
-      <c r="C89" s="2">
-        <f t="shared" ref="C89:D89" si="89">LOG10(A89)</f>
-        <v>1.939519253</v>
-      </c>
-      <c r="D89" s="2">
-        <f t="shared" si="89"/>
-        <v>6.59667823</v>
-      </c>
-      <c r="E89" s="3">
-        <f t="shared" si="3"/>
-        <v>2.864900954</v>
-      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="3"/>
     </row>
     <row r="90">
       <c r="A90" s="2">
@@ -3655,18 +2584,9 @@
       <c r="B90" s="2">
         <v>4130985.0</v>
       </c>
-      <c r="C90" s="2">
-        <f t="shared" ref="C90:D90" si="90">LOG10(A90)</f>
-        <v>1.944482672</v>
-      </c>
-      <c r="D90" s="2">
-        <f t="shared" si="90"/>
-        <v>6.616053618</v>
-      </c>
-      <c r="E90" s="3">
-        <f t="shared" si="3"/>
-        <v>2.873315578</v>
-      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="2">
@@ -3675,18 +2595,9 @@
       <c r="B91" s="2">
         <v>4317330.0</v>
       </c>
-      <c r="C91" s="2">
-        <f t="shared" ref="C91:D91" si="91">LOG10(A91)</f>
-        <v>1.949390007</v>
-      </c>
-      <c r="D91" s="2">
-        <f t="shared" si="91"/>
-        <v>6.635215246</v>
-      </c>
-      <c r="E91" s="3">
-        <f t="shared" si="3"/>
-        <v>2.881637367</v>
-      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="2">
@@ -3695,18 +2606,9 @@
       <c r="B92" s="2">
         <v>4509909.0</v>
       </c>
-      <c r="C92" s="2">
-        <f t="shared" ref="C92:D92" si="92">LOG10(A92)</f>
-        <v>1.954242509</v>
-      </c>
-      <c r="D92" s="2">
-        <f t="shared" si="92"/>
-        <v>6.654167779</v>
-      </c>
-      <c r="E92" s="3">
-        <f t="shared" si="3"/>
-        <v>2.889868348</v>
-      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="3"/>
     </row>
     <row r="93">
       <c r="A93" s="2">
@@ -3715,18 +2617,9 @@
       <c r="B93" s="2">
         <v>4708813.0</v>
       </c>
-      <c r="C93" s="2">
-        <f t="shared" ref="C93:D93" si="93">LOG10(A93)</f>
-        <v>1.959041392</v>
-      </c>
-      <c r="D93" s="2">
-        <f t="shared" si="93"/>
-        <v>6.672911444</v>
-      </c>
-      <c r="E93" s="3">
-        <f t="shared" si="3"/>
-        <v>2.898008618</v>
-      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="3"/>
     </row>
     <row r="94">
       <c r="A94" s="2">
@@ -3735,18 +2628,9 @@
       <c r="B94" s="2">
         <v>4914273.0</v>
       </c>
-      <c r="C94" s="2">
-        <f t="shared" ref="C94:D94" si="94">LOG10(A94)</f>
-        <v>1.963787827</v>
-      </c>
-      <c r="D94" s="2">
-        <f t="shared" si="94"/>
-        <v>6.691459279</v>
-      </c>
-      <c r="E94" s="3">
-        <f t="shared" si="3"/>
-        <v>2.906063841</v>
-      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="2">
@@ -3755,18 +2639,9 @@
       <c r="B95" s="2">
         <v>5126384.0</v>
       </c>
-      <c r="C95" s="2">
-        <f t="shared" ref="C95:D95" si="95">LOG10(A95)</f>
-        <v>1.968482949</v>
-      </c>
-      <c r="D95" s="2">
-        <f t="shared" si="95"/>
-        <v>6.709811135</v>
-      </c>
-      <c r="E95" s="3">
-        <f t="shared" si="3"/>
-        <v>2.91403395</v>
-      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="2">
@@ -3775,18 +2650,9 @@
       <c r="B96" s="2">
         <v>5345288.0</v>
       </c>
-      <c r="C96" s="2">
-        <f t="shared" ref="C96:D96" si="96">LOG10(A96)</f>
-        <v>1.973127854</v>
-      </c>
-      <c r="D96" s="2">
-        <f t="shared" si="96"/>
-        <v>6.72797111</v>
-      </c>
-      <c r="E96" s="3">
-        <f t="shared" si="3"/>
-        <v>2.921920727</v>
-      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="3"/>
     </row>
     <row r="97">
       <c r="A97" s="2">
@@ -3795,18 +2661,9 @@
       <c r="B97" s="2">
         <v>5571080.0</v>
       </c>
-      <c r="C97" s="2">
-        <f t="shared" ref="C97:D97" si="97">LOG10(A97)</f>
-        <v>1.977723605</v>
-      </c>
-      <c r="D97" s="2">
-        <f t="shared" si="97"/>
-        <v>6.745939395</v>
-      </c>
-      <c r="E97" s="3">
-        <f t="shared" si="3"/>
-        <v>2.929724254</v>
-      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="3"/>
     </row>
     <row r="98">
       <c r="A98" s="2">
@@ -3815,18 +2672,9 @@
       <c r="B98" s="2">
         <v>5804001.0</v>
       </c>
-      <c r="C98" s="2">
-        <f t="shared" ref="C98:D98" si="98">LOG10(A98)</f>
-        <v>1.982271233</v>
-      </c>
-      <c r="D98" s="2">
-        <f t="shared" si="98"/>
-        <v>6.763727479</v>
-      </c>
-      <c r="E98" s="3">
-        <f t="shared" si="3"/>
-        <v>2.937449521</v>
-      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="3"/>
     </row>
     <row r="99">
       <c r="A99" s="2">
@@ -3835,18 +2683,9 @@
       <c r="B99" s="2">
         <v>6044150.0</v>
       </c>
-      <c r="C99" s="2">
-        <f t="shared" ref="C99:D99" si="99">LOG10(A99)</f>
-        <v>1.986771734</v>
-      </c>
-      <c r="D99" s="2">
-        <f t="shared" si="99"/>
-        <v>6.781335234</v>
-      </c>
-      <c r="E99" s="3">
-        <f t="shared" si="3"/>
-        <v>2.945096472</v>
-      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="3"/>
     </row>
     <row r="100">
       <c r="A100" s="2">
@@ -3855,18 +2694,9 @@
       <c r="B100" s="2">
         <v>6291675.0</v>
       </c>
-      <c r="C100" s="2">
-        <f t="shared" ref="C100:D100" si="100">LOG10(A100)</f>
-        <v>1.991226076</v>
-      </c>
-      <c r="D100" s="2">
-        <f t="shared" si="100"/>
-        <v>6.798766281</v>
-      </c>
-      <c r="E100" s="3">
-        <f t="shared" si="3"/>
-        <v>2.95266668</v>
-      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="3"/>
     </row>
     <row r="101">
       <c r="A101" s="2">
@@ -3875,18 +2705,9 @@
       <c r="B101" s="2">
         <v>6546675.0</v>
       </c>
-      <c r="C101" s="2">
-        <f t="shared" ref="C101:D101" si="101">LOG10(A101)</f>
-        <v>1.995635195</v>
-      </c>
-      <c r="D101" s="2">
-        <f t="shared" si="101"/>
-        <v>6.816020782</v>
-      </c>
-      <c r="E101" s="3">
-        <f t="shared" si="3"/>
-        <v>2.960160214</v>
-      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="3"/>
     </row>
     <row r="102">
       <c r="A102" s="3"/>
@@ -10203,912 +9024,910 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>0.0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1.0</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1.0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1.0</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2.0</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>2.0</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3.0</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>3.0</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4.0</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>3.0</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5.0</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>4.0</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>6.0</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>5.0</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>7.0</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>6.0</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>8.0</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>7.0</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>9.0</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>8.0</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>10.0</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>9.0</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>11.0</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>10.0</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>12.0</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>11.0</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>13.0</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>12.0</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>14.0</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>13.0</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>15.0</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>14.0</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>16.0</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>15.0</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>17.0</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>16.0</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>18.0</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>17.0</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>19.0</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>18.0</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="G21" s="8">
+        <f>(LOG10(B22)-LOG10(B4))/(LOG10(A22)-LOG10(A4))</f>
+        <v>0.9777236053</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>20.0</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>19.0</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>21.0</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>20.0</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>22.0</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>21.0</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>23.0</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>22.0</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>24.0</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>23.0</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>25.0</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>24.0</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>26.0</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>25.0</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>27.0</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>26.0</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>28.0</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>27.0</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>29.0</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>28.0</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>30.0</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>29.0</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>31.0</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>30.0</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>32.0</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>31.0</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>33.0</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>32.0</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>34.0</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>33.0</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>35.0</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>34.0</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>36.0</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>35.0</v>
       </c>
-      <c r="C38" s="6"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>37.0</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>36.0</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>38.0</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>37.0</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>39.0</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>38.0</v>
       </c>
-      <c r="C41" s="6"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>40.0</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>39.0</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>41.0</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>40.0</v>
       </c>
-      <c r="C43" s="6"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>42.0</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>41.0</v>
       </c>
-      <c r="C44" s="6"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>43.0</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>42.0</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>44.0</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>43.0</v>
       </c>
-      <c r="C46" s="6"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>45.0</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>44.0</v>
       </c>
-      <c r="C47" s="6"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>46.0</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>45.0</v>
       </c>
-      <c r="C48" s="6"/>
+      <c r="C48" s="5"/>
     </row>
     <row r="49">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>47.0</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>46.0</v>
       </c>
-      <c r="C49" s="6"/>
+      <c r="C49" s="5"/>
     </row>
     <row r="50">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>48.0</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>47.0</v>
       </c>
-      <c r="C50" s="6"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>49.0</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>48.0</v>
       </c>
-      <c r="C51" s="6"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>50.0</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>49.0</v>
       </c>
-      <c r="C52" s="6"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>51.0</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>50.0</v>
       </c>
-      <c r="C53" s="6"/>
+      <c r="C53" s="5"/>
     </row>
     <row r="54">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>52.0</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <v>51.0</v>
       </c>
-      <c r="C54" s="6"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>53.0</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>52.0</v>
       </c>
-      <c r="C55" s="6"/>
+      <c r="C55" s="5"/>
     </row>
     <row r="56">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>54.0</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>53.0</v>
       </c>
-      <c r="C56" s="6"/>
+      <c r="C56" s="5"/>
     </row>
     <row r="57">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>55.0</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>54.0</v>
       </c>
-      <c r="C57" s="6"/>
+      <c r="C57" s="5"/>
     </row>
     <row r="58">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>56.0</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>55.0</v>
       </c>
-      <c r="C58" s="6"/>
+      <c r="C58" s="5"/>
     </row>
     <row r="59">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>57.0</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <v>56.0</v>
       </c>
-      <c r="C59" s="6"/>
+      <c r="C59" s="5"/>
     </row>
     <row r="60">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>58.0</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>57.0</v>
       </c>
-      <c r="C60" s="6"/>
+      <c r="C60" s="5"/>
     </row>
     <row r="61">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>59.0</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <v>58.0</v>
       </c>
-      <c r="C61" s="6"/>
+      <c r="C61" s="5"/>
     </row>
     <row r="62">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>60.0</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>59.0</v>
       </c>
-      <c r="C62" s="6"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>61.0</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <v>60.0</v>
       </c>
-      <c r="C63" s="6"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>62.0</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <v>61.0</v>
       </c>
-      <c r="C64" s="6"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>63.0</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <v>62.0</v>
       </c>
-      <c r="C65" s="6"/>
+      <c r="C65" s="5"/>
     </row>
     <row r="66">
-      <c r="A66" s="7">
+      <c r="A66" s="6">
         <v>64.0</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <v>63.0</v>
       </c>
-      <c r="C66" s="6"/>
+      <c r="C66" s="5"/>
     </row>
     <row r="67">
-      <c r="A67" s="7">
+      <c r="A67" s="6">
         <v>65.0</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="6">
         <v>64.0</v>
       </c>
-      <c r="C67" s="6"/>
+      <c r="C67" s="5"/>
     </row>
     <row r="68">
-      <c r="A68" s="7">
+      <c r="A68" s="6">
         <v>66.0</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="6">
         <v>65.0</v>
       </c>
-      <c r="C68" s="6"/>
+      <c r="C68" s="5"/>
     </row>
     <row r="69">
-      <c r="A69" s="7">
+      <c r="A69" s="6">
         <v>67.0</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="6">
         <v>66.0</v>
       </c>
-      <c r="C69" s="6"/>
+      <c r="C69" s="5"/>
     </row>
     <row r="70">
-      <c r="A70" s="7">
+      <c r="A70" s="6">
         <v>68.0</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <v>67.0</v>
       </c>
-      <c r="C70" s="6"/>
+      <c r="C70" s="5"/>
     </row>
     <row r="71">
-      <c r="A71" s="7">
+      <c r="A71" s="6">
         <v>69.0</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="6">
         <v>68.0</v>
       </c>
-      <c r="C71" s="6"/>
+      <c r="C71" s="5"/>
     </row>
     <row r="72">
-      <c r="A72" s="7">
+      <c r="A72" s="6">
         <v>70.0</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="6">
         <v>69.0</v>
       </c>
-      <c r="C72" s="6"/>
+      <c r="C72" s="5"/>
     </row>
     <row r="73">
-      <c r="A73" s="7">
+      <c r="A73" s="6">
         <v>71.0</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="6">
         <v>70.0</v>
       </c>
-      <c r="C73" s="6"/>
+      <c r="C73" s="5"/>
     </row>
     <row r="74">
-      <c r="A74" s="7">
+      <c r="A74" s="6">
         <v>72.0</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="6">
         <v>71.0</v>
       </c>
-      <c r="C74" s="6"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75">
-      <c r="A75" s="7">
+      <c r="A75" s="6">
         <v>73.0</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="6">
         <v>72.0</v>
       </c>
-      <c r="C75" s="6"/>
+      <c r="C75" s="5"/>
     </row>
     <row r="76">
-      <c r="A76" s="7">
+      <c r="A76" s="6">
         <v>74.0</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="6">
         <v>73.0</v>
       </c>
-      <c r="C76" s="6"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77">
-      <c r="A77" s="7">
+      <c r="A77" s="6">
         <v>75.0</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="6">
         <v>74.0</v>
       </c>
-      <c r="C77" s="6"/>
+      <c r="C77" s="5"/>
     </row>
     <row r="78">
-      <c r="A78" s="7">
+      <c r="A78" s="6">
         <v>76.0</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="6">
         <v>75.0</v>
       </c>
-      <c r="C78" s="6"/>
+      <c r="C78" s="5"/>
     </row>
     <row r="79">
-      <c r="A79" s="7">
+      <c r="A79" s="6">
         <v>77.0</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="6">
         <v>76.0</v>
       </c>
-      <c r="C79" s="6"/>
+      <c r="C79" s="5"/>
     </row>
     <row r="80">
-      <c r="A80" s="7">
+      <c r="A80" s="6">
         <v>78.0</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="6">
         <v>77.0</v>
       </c>
-      <c r="C80" s="6"/>
+      <c r="C80" s="5"/>
     </row>
     <row r="81">
-      <c r="A81" s="7">
+      <c r="A81" s="6">
         <v>79.0</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="6">
         <v>78.0</v>
       </c>
-      <c r="C81" s="6"/>
+      <c r="C81" s="5"/>
     </row>
     <row r="82">
-      <c r="A82" s="7">
+      <c r="A82" s="6">
         <v>80.0</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="6">
         <v>79.0</v>
       </c>
-      <c r="C82" s="6"/>
+      <c r="C82" s="5"/>
     </row>
     <row r="83">
-      <c r="A83" s="7">
+      <c r="A83" s="6">
         <v>81.0</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="6">
         <v>80.0</v>
       </c>
-      <c r="C83" s="6"/>
+      <c r="C83" s="5"/>
     </row>
     <row r="84">
-      <c r="A84" s="7">
+      <c r="A84" s="6">
         <v>82.0</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="6">
         <v>81.0</v>
       </c>
-      <c r="C84" s="6"/>
+      <c r="C84" s="5"/>
     </row>
     <row r="85">
-      <c r="A85" s="7">
+      <c r="A85" s="6">
         <v>83.0</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="6">
         <v>82.0</v>
       </c>
-      <c r="C85" s="6"/>
+      <c r="C85" s="5"/>
     </row>
     <row r="86">
-      <c r="A86" s="7">
+      <c r="A86" s="6">
         <v>84.0</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="6">
         <v>83.0</v>
       </c>
-      <c r="C86" s="6"/>
+      <c r="C86" s="5"/>
     </row>
     <row r="87">
-      <c r="A87" s="7">
+      <c r="A87" s="6">
         <v>85.0</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="6">
         <v>84.0</v>
       </c>
-      <c r="C87" s="6"/>
+      <c r="C87" s="5"/>
     </row>
     <row r="88">
-      <c r="A88" s="7">
+      <c r="A88" s="6">
         <v>86.0</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="6">
         <v>85.0</v>
       </c>
-      <c r="C88" s="6"/>
+      <c r="C88" s="5"/>
     </row>
     <row r="89">
-      <c r="A89" s="7">
+      <c r="A89" s="6">
         <v>87.0</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="6">
         <v>86.0</v>
       </c>
-      <c r="C89" s="6"/>
+      <c r="C89" s="5"/>
     </row>
     <row r="90">
-      <c r="A90" s="7">
+      <c r="A90" s="6">
         <v>88.0</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="6">
         <v>87.0</v>
       </c>
-      <c r="C90" s="6"/>
+      <c r="C90" s="5"/>
     </row>
     <row r="91">
-      <c r="A91" s="7">
+      <c r="A91" s="6">
         <v>89.0</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="6">
         <v>88.0</v>
       </c>
-      <c r="C91" s="6"/>
+      <c r="C91" s="5"/>
     </row>
     <row r="92">
-      <c r="A92" s="7">
+      <c r="A92" s="6">
         <v>90.0</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="6">
         <v>89.0</v>
       </c>
-      <c r="C92" s="6"/>
+      <c r="C92" s="5"/>
     </row>
     <row r="93">
-      <c r="A93" s="7">
+      <c r="A93" s="6">
         <v>91.0</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="6">
         <v>90.0</v>
       </c>
-      <c r="C93" s="6"/>
+      <c r="C93" s="5"/>
     </row>
     <row r="94">
-      <c r="A94" s="7">
+      <c r="A94" s="6">
         <v>92.0</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="6">
         <v>91.0</v>
       </c>
-      <c r="C94" s="6"/>
+      <c r="C94" s="5"/>
     </row>
     <row r="95">
-      <c r="A95" s="7">
+      <c r="A95" s="6">
         <v>93.0</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="6">
         <v>92.0</v>
       </c>
-      <c r="C95" s="6"/>
+      <c r="C95" s="5"/>
     </row>
     <row r="96">
-      <c r="A96" s="7">
+      <c r="A96" s="6">
         <v>94.0</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="6">
         <v>93.0</v>
       </c>
-      <c r="C96" s="6"/>
+      <c r="C96" s="5"/>
     </row>
     <row r="97">
-      <c r="A97" s="7">
+      <c r="A97" s="6">
         <v>95.0</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="6">
         <v>94.0</v>
       </c>
-      <c r="C97" s="6"/>
+      <c r="C97" s="5"/>
     </row>
     <row r="98">
-      <c r="A98" s="7">
+      <c r="A98" s="6">
         <v>96.0</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="6">
         <v>95.0</v>
       </c>
-      <c r="C98" s="6"/>
+      <c r="C98" s="5"/>
     </row>
     <row r="99">
-      <c r="A99" s="7">
+      <c r="A99" s="6">
         <v>97.0</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="6">
         <v>96.0</v>
       </c>
-      <c r="C99" s="6"/>
+      <c r="C99" s="5"/>
     </row>
     <row r="100">
-      <c r="A100" s="7">
+      <c r="A100" s="6">
         <v>98.0</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="6">
         <v>97.0</v>
       </c>
-      <c r="C100" s="6"/>
+      <c r="C100" s="5"/>
     </row>
     <row r="101">
-      <c r="A101" s="7">
+      <c r="A101" s="6">
         <v>99.0</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="6">
         <v>98.0</v>
       </c>
     </row>
@@ -11134,813 +9953,811 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>0.0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1.0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2.0</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>7.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3.0</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>20.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4.0</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>33.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5.0</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>52.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>6.0</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>75.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>7.0</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>100.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>8.0</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>127.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>9.0</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>159.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>10.0</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>191.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>11.0</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>235.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>12.0</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>272.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>13.0</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>316.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>14.0</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>363.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>15.0</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>412.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>16.0</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>466.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>17.0</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>522.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>18.0</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>582.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>19.0</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>643.0</v>
       </c>
+      <c r="G21" s="8">
+        <f>(LOG10(B22)-LOG10(B4))/(LOG10(A22)-LOG10(A4))</f>
+        <v>2.004935218</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>20.0</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>708.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>21.0</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>779.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>22.0</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>845.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>23.0</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>922.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>24.0</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>998.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>25.0</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>1078.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>26.0</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>1164.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>27.0</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>1250.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>28.0</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>1336.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>29.0</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>1433.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>30.0</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>1525.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>31.0</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>1624.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>32.0</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>1721.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>33.0</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>1833.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>34.0</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>1937.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>35.0</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>2047.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>36.0</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>2160.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>37.0</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>2276.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>38.0</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>2393.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>39.0</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>2521.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>40.0</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>2644.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>41.0</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>2775.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>42.0</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>2902.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>43.0</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>3039.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>44.0</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>3176.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>45.0</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>3318.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>46.0</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>3459.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>47.0</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>3604.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>48.0</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>3755.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>49.0</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>3909.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>50.0</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>4060.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>51.0</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>4222.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>52.0</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <v>4380.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>53.0</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>4548.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>54.0</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>4714.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>55.0</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>4883.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>56.0</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>5059.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>57.0</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <v>5234.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>58.0</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>5415.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>59.0</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <v>5599.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>60.0</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>5782.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>61.0</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <v>5972.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>62.0</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <v>6162.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>63.0</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <v>6358.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7">
+      <c r="A66" s="6">
         <v>64.0</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <v>6554.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="7">
+      <c r="A67" s="6">
         <v>65.0</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="6">
         <v>6753.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7">
+      <c r="A68" s="6">
         <v>66.0</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="6">
         <v>6960.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="7">
+      <c r="A69" s="6">
         <v>67.0</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="6">
         <v>7167.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="7">
+      <c r="A70" s="6">
         <v>68.0</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <v>7376.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="7">
+      <c r="A71" s="6">
         <v>69.0</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="6">
         <v>7590.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7">
+      <c r="A72" s="6">
         <v>70.0</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="6">
         <v>7800.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="7">
+      <c r="A73" s="6">
         <v>71.0</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="6">
         <v>8025.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7">
+      <c r="A74" s="6">
         <v>72.0</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="6">
         <v>8242.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="7">
+      <c r="A75" s="6">
         <v>73.0</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="6">
         <v>8469.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="7">
+      <c r="A76" s="6">
         <v>74.0</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="6">
         <v>8694.0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7">
+      <c r="A77" s="6">
         <v>75.0</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="6">
         <v>8923.0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="7">
+      <c r="A78" s="6">
         <v>76.0</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="6">
         <v>9155.0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="7">
+      <c r="A79" s="6">
         <v>77.0</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="6">
         <v>9394.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="7">
+      <c r="A80" s="6">
         <v>78.0</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="6">
         <v>9632.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="7">
+      <c r="A81" s="6">
         <v>79.0</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="6">
         <v>9875.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="7">
+      <c r="A82" s="6">
         <v>80.0</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="6">
         <v>10116.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="7">
+      <c r="A83" s="6">
         <v>81.0</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="6">
         <v>10372.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="7">
+      <c r="A84" s="6">
         <v>82.0</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="6">
         <v>10619.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="7">
+      <c r="A85" s="6">
         <v>83.0</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="6">
         <v>10880.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="7">
+      <c r="A86" s="6">
         <v>84.0</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="6">
         <v>11134.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="7">
+      <c r="A87" s="6">
         <v>85.0</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="6">
         <v>11392.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="7">
+      <c r="A88" s="6">
         <v>86.0</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="6">
         <v>11658.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="7">
+      <c r="A89" s="6">
         <v>87.0</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="6">
         <v>11924.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="7">
+      <c r="A90" s="6">
         <v>88.0</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="6">
         <v>12192.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="7">
+      <c r="A91" s="6">
         <v>89.0</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="6">
         <v>12467.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="7">
+      <c r="A92" s="6">
         <v>90.0</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="6">
         <v>12744.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="7">
+      <c r="A93" s="6">
         <v>91.0</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="6">
         <v>13025.0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="7">
+      <c r="A94" s="6">
         <v>92.0</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="6">
         <v>13306.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="7">
+      <c r="A95" s="6">
         <v>93.0</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="6">
         <v>13592.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="7">
+      <c r="A96" s="6">
         <v>94.0</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="6">
         <v>13875.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="7">
+      <c r="A97" s="6">
         <v>95.0</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="6">
         <v>14165.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="7">
+      <c r="A98" s="6">
         <v>96.0</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="6">
         <v>14462.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="7">
+      <c r="A99" s="6">
         <v>97.0</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="6">
         <v>14756.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="7">
+      <c r="A100" s="6">
         <v>98.0</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="6">
         <v>15055.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="7">
+      <c r="A101" s="6">
         <v>99.0</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="6">
         <v>15358.0</v>
       </c>
     </row>
@@ -11966,421 +10783,419 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>0.0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1.0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2.0</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3.0</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>48.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4.0</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>231.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5.0</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>935.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>6.0</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>2640.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>7.0</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>6930.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>8.0</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>15022.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>9.0</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>31302.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>10.0</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>57960.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>11.0</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>104720.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>12.0</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>174669.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>13.0</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>286533.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>14.0</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>443716.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>15.0</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>678930.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>16.0</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>994620.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>17.0</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>1443980.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>18.0</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>2026332.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>19.0</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>2823552.0</v>
       </c>
+      <c r="G21" s="8">
+        <f>(LOG10(B22)-LOG10(B4))/(LOG10(A22)-LOG10(A4))</f>
+        <v>5.980979437</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>20.0</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>3828595.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>21.0</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>5162115.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>22.0</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>6806184.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>23.0</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>8932418.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>24.0</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>1.1506026E7</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>25.0</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>1.476405E7</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>26.0</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>1.86472E7</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>27.0</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>2.347488E7</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>28.0</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>2.9153817E7</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>29.0</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>3.6105377E7</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>30.0</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>4.419078E7</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>31.0</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>5.395581E7</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>32.0</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>6.5202424E7</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>33.0</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>7.8626328E7</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>34.0</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>9.3954036E7</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>35.0</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>1.1205992E8</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>36.0</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>1.32576255E8</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>37.0</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>1.56588255E8</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>38.0</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>1.83612352E8</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>39.0</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>2.14980402E8</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>40.0</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>2.5006839E8</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>41.0</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>2.9049443E8</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>42.0</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>3.35466264E8</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>43.0</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>3.86931888E8</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>44.0</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>4.43899621E8</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>45.0</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>5.08695165E8</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>46.0</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>5.8009266E8</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>47.0</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>6.6084773E8</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>48.0</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>7.49461812E8</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>49.0</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>8.49177252E8</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>50.0</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>9.581803E8</v>
       </c>
     </row>
@@ -12406,813 +11221,811 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>0.0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1.0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2.0</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>7.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3.0</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>30.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4.0</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>82.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5.0</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>187.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>6.0</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>368.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>7.0</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>663.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>8.0</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>1106.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>9.0</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>1747.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>10.0</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>2631.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>11.0</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>3822.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>12.0</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>5376.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>13.0</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>7369.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>14.0</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>9868.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>15.0</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>12963.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>16.0</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>16732.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>17.0</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>21277.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>18.0</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>26687.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>19.0</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>33078.0</v>
       </c>
+      <c r="G21" s="8">
+        <f>(LOG10(B22)-LOG10(B4))/(LOG10(A22)-LOG10(A4))</f>
+        <v>3.762892819</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>20.0</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>40550.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>21.0</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>49231.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>22.0</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>59232.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>23.0</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>70695.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>24.0</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>83742.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>25.0</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>98527.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>26.0</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>115183.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>27.0</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>133878.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>28.0</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>154756.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>29.0</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>177997.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>30.0</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>203756.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>31.0</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>232227.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>32.0</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>263576.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>33.0</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>298009.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>34.0</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>335703.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>35.0</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>376878.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>36.0</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>421722.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>37.0</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>470467.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>38.0</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>523312.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>39.0</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>580503.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>40.0</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>642250.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>41.0</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>708811.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>42.0</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>780407.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>43.0</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>857310.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>44.0</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>939752.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>45.0</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>1028017.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>46.0</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>1122348.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>47.0</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>1223043.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>48.0</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>1330356.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>49.0</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>1444597.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>50.0</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>1566031.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>51.0</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>1694982.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>52.0</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <v>1831726.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>53.0</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>1976599.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>54.0</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>2129888.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>55.0</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>2291943.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>56.0</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>2463062.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>57.0</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <v>2643607.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>58.0</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>2833887.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>59.0</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <v>3034278.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>60.0</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>3245100.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>61.0</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <v>3466741.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>62.0</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <v>3699532.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>63.0</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <v>3943875.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7">
+      <c r="A66" s="6">
         <v>64.0</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <v>4200112.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="7">
+      <c r="A67" s="6">
         <v>65.0</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="6">
         <v>4468657.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7">
+      <c r="A68" s="6">
         <v>66.0</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="6">
         <v>4749863.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="7">
+      <c r="A69" s="6">
         <v>67.0</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="6">
         <v>5044158.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="7">
+      <c r="A70" s="6">
         <v>68.0</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <v>5351906.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="7">
+      <c r="A71" s="6">
         <v>69.0</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="6">
         <v>5673547.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7">
+      <c r="A72" s="6">
         <v>70.0</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="6">
         <v>6009456.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="7">
+      <c r="A73" s="6">
         <v>71.0</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="6">
         <v>6360087.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7">
+      <c r="A74" s="6">
         <v>72.0</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="6">
         <v>6725826.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="7">
+      <c r="A75" s="6">
         <v>73.0</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="6">
         <v>7107139.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="7">
+      <c r="A76" s="6">
         <v>74.0</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="6">
         <v>7504423.0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7">
+      <c r="A77" s="6">
         <v>75.0</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="6">
         <v>7918158.0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="7">
+      <c r="A78" s="6">
         <v>76.0</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="6">
         <v>8348752.0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="7">
+      <c r="A79" s="6">
         <v>77.0</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="6">
         <v>8796697.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="7">
+      <c r="A80" s="6">
         <v>78.0</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="6">
         <v>9262412.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="7">
+      <c r="A81" s="6">
         <v>79.0</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="6">
         <v>9746403.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="7">
+      <c r="A82" s="6">
         <v>80.0</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="6">
         <v>1.02491E7</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="7">
+      <c r="A83" s="6">
         <v>81.0</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="6">
         <v>1.0771021E7</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="7">
+      <c r="A84" s="6">
         <v>82.0</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="6">
         <v>1.1312607E7</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="7">
+      <c r="A85" s="6">
         <v>83.0</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="6">
         <v>1.187439E7</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="7">
+      <c r="A86" s="6">
         <v>84.0</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="6">
         <v>1.2456822E7</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="7">
+      <c r="A87" s="6">
         <v>85.0</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="6">
         <v>1.3060447E7</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="7">
+      <c r="A88" s="6">
         <v>86.0</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="6">
         <v>1.3685728E7</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="7">
+      <c r="A89" s="6">
         <v>87.0</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="6">
         <v>1.4333223E7</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="7">
+      <c r="A90" s="6">
         <v>88.0</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="6">
         <v>1.5003406E7</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="7">
+      <c r="A91" s="6">
         <v>89.0</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="6">
         <v>1.5696847E7</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="7">
+      <c r="A92" s="6">
         <v>90.0</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="6">
         <v>1.6414031E7</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="7">
+      <c r="A93" s="6">
         <v>91.0</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="6">
         <v>1.7155542E7</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="7">
+      <c r="A94" s="6">
         <v>92.0</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="6">
         <v>1.7921876E7</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="7">
+      <c r="A95" s="6">
         <v>93.0</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="6">
         <v>1.8713629E7</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="7">
+      <c r="A96" s="6">
         <v>94.0</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="6">
         <v>1.9531308E7</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="7">
+      <c r="A97" s="6">
         <v>95.0</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="6">
         <v>2.0375523E7</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="7">
+      <c r="A98" s="6">
         <v>96.0</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="6">
         <v>2.1246792E7</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="7">
+      <c r="A99" s="6">
         <v>97.0</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="6">
         <v>2.2145737E7</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="7">
+      <c r="A100" s="6">
         <v>98.0</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="6">
         <v>2.3072887E7</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="7">
+      <c r="A101" s="6">
         <v>99.0</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="6">
         <v>2.4028878E7</v>
       </c>
     </row>
